--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s0_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.8920471161887</v>
+        <v>830.6646491060288</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.90513640446556</v>
+        <v>7.797747709578076</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.90513640446556</v>
+        <v>7.691650490051502</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>559.3500000000124</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.23</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.88634790002131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055584</v>
+        <v>17.7338617375427</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.79148430448686</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,15 +1057,57 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5050000000004</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3400000000004</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000004</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.9050000000012</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>253.4050000000012</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>251.1800000000013</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>262.2600000000012</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>257.8800000000012</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>208.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>236.9050000000012</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>253.4050000000012</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>251.1800000000013</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>262.2600000000012</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>257.8800000000012</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1611,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1633,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>36.90500000000124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.40500000000122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>51.18000000000126</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>62.26000000000124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>57.88000000000125</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1900,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2040,10 +2082,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2051,10 +2093,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2062,10 +2104,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2073,10 +2115,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2084,10 +2126,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2095,10 +2137,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2106,10 +2148,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2117,7 +2159,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
